--- a/xlsx/圣费尔南多谷_intext.xlsx
+++ b/xlsx/圣费尔南多谷_intext.xlsx
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E5%80%AB%E4%BB%A3%E7%88%BE_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格倫代爾 (加利福尼亞州)</t>
+    <t>格伦代尔 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E8%B4%B9%E5%B0%94%E5%8D%97%E5%A4%9A</t>
